--- a/target/test-classes/RegisterData.xlsx
+++ b/target/test-classes/RegisterData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Firstname</t>
   </si>
@@ -70,12 +70,16 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Login(Login passed for valid data)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -422,10 +426,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.91796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -470,6 +475,9 @@
       <c r="F2">
         <v>123456</v>
       </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -490,6 +498,9 @@
       <c r="F3">
         <v>1234567</v>
       </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -510,6 +521,9 @@
       <c r="F4">
         <v>12345678</v>
       </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -529,6 +543,9 @@
       </c>
       <c r="F5">
         <v>1234567</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
